--- a/ExcelFile/TestData.xlsx
+++ b/ExcelFile/TestData.xlsx
@@ -392,10 +392,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -404,7 +404,7 @@
     <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row spans="1:3" x14ac:dyDescent="0.3" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,18 +415,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row spans="1:3" x14ac:dyDescent="0.3" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>WHITE</t>
+        </is>
       </c>
       <c r="C2" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row spans="1:3" x14ac:dyDescent="0.3" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -437,7 +439,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row spans="1:3" x14ac:dyDescent="0.3" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -448,7 +450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row spans="1:3" x14ac:dyDescent="0.3" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -459,7 +461,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row spans="1:3" x14ac:dyDescent="0.3" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
